--- a/branches/add-missing-xhtml-files/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/add-missing-xhtml-files/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:48:36+00:00</t>
+    <t>2023-04-04T10:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/add-missing-xhtml-files/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/add-missing-xhtml-files/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:48:52+00:00</t>
+    <t>2023-04-04T10:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
